--- a/StepUp/MC34063A.xlsx
+++ b/StepUp/MC34063A.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3BA3C-399E-47C1-BE76-F861BB6B887F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{44A1187E-5DCE-4FFE-A534-7CA92CC45E5B}"/>
+    <workbookView xWindow="5580" yWindow="720" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="StepUp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ton</t>
   </si>
@@ -82,13 +76,22 @@
   </si>
   <si>
     <t>500pf</t>
+  </si>
+  <si>
+    <t>Сопртивление меди Ом*см</t>
+  </si>
+  <si>
+    <t>длинна</t>
+  </si>
+  <si>
+    <t>65м?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6762750" y="3238500"/>
+          <a:ext cx="7296150" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -180,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -232,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,26 +481,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6814DD4-43EF-4408-8BA2-E6F70A22FB31}">
-  <dimension ref="B5:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -453,7 +509,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -464,13 +520,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="D8" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -480,8 +536,14 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7799999999999999E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -498,8 +560,18 @@
         <f>(C12+C14-C13)/(C13-C15)</f>
         <v>2.7037037037037037</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1">
+        <f>G18/N11</f>
+        <v>65008.02568218299</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -514,7 +586,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -529,7 +601,7 @@
         <v>5.4000000000000008E-6</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -544,7 +616,7 @@
         <v>1.4600000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="F16" t="s">
         <v>12</v>
       </c>
@@ -556,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7">
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -565,7 +637,7 @@
         <v>2.5925925925925926</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7">
       <c r="F18" t="s">
         <v>16</v>
       </c>
@@ -574,7 +646,7 @@
         <v>0.11571428571428571</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7">
       <c r="F19" t="s">
         <v>17</v>
       </c>
@@ -586,5 +658,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/StepUp/MC34063A.xlsx
+++ b/StepUp/MC34063A.xlsx
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +492,7 @@
   <dimension ref="B5:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>50000</v>
+        <v>34000</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="G13" s="1">
         <f>1/D6</f>
-        <v>2.0000000000000002E-5</v>
+        <v>2.9411764705882354E-5</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -598,7 +598,7 @@
       </c>
       <c r="G14" s="1">
         <f>G13/(G12+1)</f>
-        <v>5.4000000000000008E-6</v>
+        <v>7.9411764705882363E-6</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -613,7 +613,7 @@
       </c>
       <c r="G15" s="1">
         <f>G13-G14</f>
-        <v>1.4600000000000001E-5</v>
+        <v>2.1470588235294116E-5</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -622,7 +622,7 @@
       </c>
       <c r="G16" s="1">
         <f>D5*G15</f>
-        <v>5.8400000000000005E-10</v>
+        <v>8.5882352941176472E-10</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -652,7 +652,7 @@
       </c>
       <c r="G19" s="1">
         <f>((C13-C15)/G17)*G15</f>
-        <v>1.5204857142857143E-4</v>
+        <v>2.2360084033613443E-4</v>
       </c>
     </row>
   </sheetData>
